--- a/products.xlsx
+++ b/products.xlsx
@@ -404,1157 +404,1283 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>productName</v>
+        <v>Rating</v>
       </c>
       <c r="B1" t="str">
-        <v>brand</v>
+        <v>Product Name</v>
       </c>
       <c r="C1" t="str">
-        <v>mrp</v>
+        <v>Currency</v>
       </c>
       <c r="D1" t="str">
-        <v>price</v>
+        <v>MRP</v>
       </c>
       <c r="E1" t="str">
-        <v>priceSymbol</v>
+        <v>Price</v>
       </c>
       <c r="F1" t="str">
-        <v>ratingOutOf5</v>
+        <v>Brand</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v/>
+      </c>
+      <c r="B2" t="str">
         <v>Swarnavarsham Hallmarked 999 Gold Coin 10 Gm</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D2">
+        <v>86535</v>
+      </c>
+      <c r="E2">
+        <v>76734</v>
+      </c>
+      <c r="F2" t="str">
         <v>Muthoot PAPPACHAN</v>
       </c>
-      <c r="C2" t="str">
-        <v>₹86,535</v>
-      </c>
-      <c r="D2">
-        <v>76734</v>
-      </c>
-      <c r="E2" t="str">
-        <v>₹</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3">
+        <v>4.6</v>
+      </c>
+      <c r="B3" t="str">
         <v>Swarnavarsham 24K (999) Yellow Gold Bar 10 Gm</v>
       </c>
-      <c r="B3" t="str">
+      <c r="C3" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D3">
+        <v>87500</v>
+      </c>
+      <c r="E3">
+        <v>76789</v>
+      </c>
+      <c r="F3" t="str">
         <v>Muthoot PAPPACHAN</v>
-      </c>
-      <c r="C3" t="str">
-        <v>₹87,500</v>
-      </c>
-      <c r="D3">
-        <v>76789</v>
-      </c>
-      <c r="E3" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F3" t="str">
-        <v>4.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
         <v>Swarnavarsham 24K (999) Yellow Gold Bar 8 Gm</v>
       </c>
-      <c r="B4" t="str">
+      <c r="C4" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D4">
+        <v>70500</v>
+      </c>
+      <c r="E4">
+        <v>61573</v>
+      </c>
+      <c r="F4" t="str">
         <v>Muthoot PAPPACHAN</v>
-      </c>
-      <c r="C4" t="str">
-        <v>₹70,500</v>
-      </c>
-      <c r="D4">
-        <v>61573</v>
-      </c>
-      <c r="E4" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5" t="str">
         <v>Carved 10 gm Yellow Gold Coin</v>
       </c>
-      <c r="B5" t="str">
+      <c r="C5" t="str">
+        <v>₹</v>
+      </c>
+      <c r="E5">
+        <v>82741</v>
+      </c>
+      <c r="F5" t="str">
         <v>Mia by Tanishq</v>
       </c>
-      <c r="D5">
-        <v>82741</v>
-      </c>
-      <c r="E5" t="str">
-        <v>₹</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6">
+        <v>4.6</v>
+      </c>
+      <c r="B6" t="str">
         <v>24k (999.9) 10 gm Yellow Gold Bar</v>
       </c>
-      <c r="B6" t="str">
+      <c r="C6" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D6">
+        <v>85000</v>
+      </c>
+      <c r="E6">
+        <v>77196</v>
+      </c>
+      <c r="F6" t="str">
         <v>Bangalore Refinery</v>
       </c>
-      <c r="C6" t="str">
-        <v>₹85,000</v>
-      </c>
-      <c r="D6">
-        <v>77196</v>
-      </c>
-      <c r="E6" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F6" t="str">
+    </row>
+    <row r="7">
+      <c r="A7">
         <v>4.6</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
+      <c r="B7" t="str">
         <v>Assayer Certified 10 grams, 24k (999) Yellow Gold Precious Gold Bar</v>
       </c>
-      <c r="B7" t="str">
+      <c r="C7" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D7">
+        <v>94631</v>
+      </c>
+      <c r="E7">
+        <v>77566</v>
+      </c>
+      <c r="F7" t="str">
         <v>Joyalukkas</v>
       </c>
-      <c r="C7" t="str">
-        <v>₹94,631</v>
-      </c>
-      <c r="D7">
-        <v>77566</v>
-      </c>
-      <c r="E7" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F7" t="str">
+    </row>
+    <row r="8">
+      <c r="A8">
         <v>4.6</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
+      <c r="B8" t="str">
         <v>Swarnavarsham 24K (999) Yellow Gold Bar 10 Gm</v>
       </c>
-      <c r="B8" t="str">
+      <c r="C8" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D8">
+        <v>87500</v>
+      </c>
+      <c r="E8">
+        <v>76789</v>
+      </c>
+      <c r="F8" t="str">
         <v>Muthoot PAPPACHAN</v>
       </c>
-      <c r="C8" t="str">
-        <v>₹87,500</v>
-      </c>
-      <c r="D8">
-        <v>76789</v>
-      </c>
-      <c r="E8" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F8" t="str">
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>4.5</v>
+      </c>
+      <c r="B9" t="str">
+        <v>24k (999) 10gram Rose Gold Bar</v>
+      </c>
+      <c r="C9" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D9">
+        <v>80600</v>
+      </c>
+      <c r="E9">
+        <v>77109</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Malabar Gold &amp; Diamonds</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>4.4</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Jewellery 10gram 24K (999) Gold Bar</v>
+      </c>
+      <c r="F10" t="str">
+        <v>BHIMA</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
         <v>4.6</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>24k (999) 10gram Rose Gold Bar</v>
-      </c>
-      <c r="B9" t="str">
+      <c r="B11" t="str">
+        <v>24k (999) 10gm Yellow Gold Bar</v>
+      </c>
+      <c r="C11" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D11">
+        <v>82495</v>
+      </c>
+      <c r="E11">
+        <v>77448</v>
+      </c>
+      <c r="F11" t="str">
+        <v>WHP Jewellers</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>4.5</v>
+      </c>
+      <c r="B12" t="str">
+        <v>2024 NA Gold NA</v>
+      </c>
+      <c r="C12" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D12">
+        <v>82350</v>
+      </c>
+      <c r="E12">
+        <v>77109</v>
+      </c>
+      <c r="F12" t="str">
         <v>Malabar Gold &amp; Diamonds</v>
       </c>
-      <c r="C9" t="str">
-        <v>₹80,600</v>
-      </c>
-      <c r="D9">
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>4.5</v>
+      </c>
+      <c r="B13" t="str">
+        <v>MMTC - PAMP Goddess Lakshmi 24k 10gm Gold Bar</v>
+      </c>
+      <c r="C13" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D13">
+        <v>89000</v>
+      </c>
+      <c r="E13">
+        <v>78830</v>
+      </c>
+      <c r="F13" t="str">
+        <v>MMTC-PAMP</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>4.6</v>
+      </c>
+      <c r="B14" t="str">
+        <v>2024 NA Gold NA</v>
+      </c>
+      <c r="C14" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D14">
+        <v>80600</v>
+      </c>
+      <c r="E14">
         <v>77109</v>
       </c>
-      <c r="E9" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F9" t="str">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Jewellery 10gram 24K (999) Gold Bar</v>
-      </c>
-      <c r="B10" t="str">
-        <v>BHIMA</v>
-      </c>
-      <c r="F10" t="str">
+      <c r="F14" t="str">
+        <v>Malabar Gold &amp; Diamonds</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>4.6</v>
+      </c>
+      <c r="B15" t="str">
+        <v>22k (916) 10gram Rose Gold Coin BIS Hallmarked</v>
+      </c>
+      <c r="C15" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D15">
+        <v>76150</v>
+      </c>
+      <c r="E15">
+        <v>71299</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Malabar Gold &amp; Diamonds</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
         <v>4.4</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>24k (999) 10gm Yellow Gold Bar</v>
-      </c>
-      <c r="B11" t="str">
-        <v>WHP Jewellers</v>
-      </c>
-      <c r="C11" t="str">
-        <v>₹82,495</v>
-      </c>
-      <c r="D11">
-        <v>77448</v>
-      </c>
-      <c r="E11" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F11" t="str">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>MMTC - PAMP Goddess Lakshmi 24k 10gm Gold Bar</v>
-      </c>
-      <c r="B12" t="str">
-        <v>MMTC-PAMP</v>
-      </c>
-      <c r="C12" t="str">
-        <v>₹89,000</v>
-      </c>
-      <c r="D12">
-        <v>78830</v>
-      </c>
-      <c r="E12" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F12" t="str">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>2024 NA Gold NA</v>
-      </c>
-      <c r="B13" t="str">
+      <c r="B16" t="str">
+        <v>22k (916) 10gram Goddess Laxmi Gold Coin BIS Hallmarked</v>
+      </c>
+      <c r="C16" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D16">
+        <v>74900</v>
+      </c>
+      <c r="E16">
+        <v>71299</v>
+      </c>
+      <c r="F16" t="str">
         <v>Malabar Gold &amp; Diamonds</v>
-      </c>
-      <c r="C13" t="str">
-        <v>₹80,600</v>
-      </c>
-      <c r="D13">
-        <v>77109</v>
-      </c>
-      <c r="E13" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F13" t="str">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>2024 NA Gold NA</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Malabar Gold &amp; Diamonds</v>
-      </c>
-      <c r="C14" t="str">
-        <v>₹82,350</v>
-      </c>
-      <c r="D14">
-        <v>77109</v>
-      </c>
-      <c r="E14" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F14" t="str">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>22k (916) 10gram Goddess Laxmi Gold Coin BIS Hallmarked</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Malabar Gold &amp; Diamonds</v>
-      </c>
-      <c r="C15" t="str">
-        <v>₹74,900</v>
-      </c>
-      <c r="D15">
-        <v>71299</v>
-      </c>
-      <c r="E15" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F15" t="str">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>10 gm, 24k (999) Yellow Gold Coin</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Bangalore Refinery</v>
-      </c>
-      <c r="C16" t="str">
-        <v>₹80,000</v>
-      </c>
-      <c r="D16">
-        <v>77256</v>
-      </c>
-      <c r="E16" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>10gm Euphoria Jewellery by A Himanshu pure 24KT gold coin in 999 finese</v>
+        <v/>
       </c>
       <c r="B17" t="str">
-        <v>Euphoria Jewellery</v>
+        <v>10 gm, 24k (999) Yellow Gold Coin</v>
       </c>
       <c r="C17" t="str">
-        <v>₹80,000</v>
+        <v>₹</v>
       </c>
       <c r="D17">
-        <v>77450</v>
-      </c>
-      <c r="E17" t="str">
-        <v>₹</v>
+        <v>80000</v>
+      </c>
+      <c r="E17">
+        <v>77256</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Bangalore Refinery</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>22k (916) 10gram Rose Gold Coin BIS Hallmarked</v>
+        <v/>
       </c>
       <c r="B18" t="str">
-        <v>Malabar Gold &amp; Diamonds</v>
+        <v>10gm Euphoria Jewellery by A Himanshu pure 24KT gold coin in 999 finese</v>
       </c>
       <c r="C18" t="str">
-        <v>₹76,150</v>
+        <v>₹</v>
       </c>
       <c r="D18">
-        <v>71299</v>
-      </c>
-      <c r="E18" t="str">
-        <v>₹</v>
+        <v>80000</v>
+      </c>
+      <c r="E18">
+        <v>77450</v>
       </c>
       <c r="F18" t="str">
+        <v>Euphoria Jewellery</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
         <v>4.6</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
+      <c r="B19" t="str">
         <v>24k (999.9) 5 gm Yellow Gold Bar</v>
       </c>
-      <c r="B19" t="str">
+      <c r="C19" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D19">
+        <v>45000</v>
+      </c>
+      <c r="E19">
+        <v>38553</v>
+      </c>
+      <c r="F19" t="str">
         <v>Bangalore Refinery</v>
-      </c>
-      <c r="C19" t="str">
-        <v>₹45,000</v>
-      </c>
-      <c r="D19">
-        <v>38553</v>
-      </c>
-      <c r="E19" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F19" t="str">
-        <v>4.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
         <v>Swarnavarsham Hallmarked 999 Gold Coin 10 Gm</v>
       </c>
-      <c r="B20" t="str">
+      <c r="C20" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D20">
+        <v>86535</v>
+      </c>
+      <c r="E20">
+        <v>76734</v>
+      </c>
+      <c r="F20" t="str">
         <v>Muthoot PAPPACHAN</v>
-      </c>
-      <c r="C20" t="str">
-        <v>₹86,535</v>
-      </c>
-      <c r="D20">
-        <v>76734</v>
-      </c>
-      <c r="E20" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
         <v>10 Gram 24k (999) Yellow Gold Rose Coin</v>
       </c>
-      <c r="B21" t="str">
+      <c r="C21" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D21">
+        <v>81500</v>
+      </c>
+      <c r="E21">
+        <v>77256</v>
+      </c>
+      <c r="F21" t="str">
         <v>Bangalore Refinery</v>
-      </c>
-      <c r="C21" t="str">
-        <v>₹81,500</v>
-      </c>
-      <c r="D21">
-        <v>77256</v>
-      </c>
-      <c r="E21" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
         <v>10 gm Gayatri Mantra Gold Coin</v>
       </c>
-      <c r="B22" t="str">
+      <c r="C22" t="str">
+        <v>₹</v>
+      </c>
+      <c r="E22">
+        <v>82741</v>
+      </c>
+      <c r="F22" t="str">
         <v>Mia by Tanishq</v>
-      </c>
-      <c r="D22">
-        <v>82741</v>
-      </c>
-      <c r="E22" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>22 Karat Yellow Gold Divine Mango Leaf Coin of 8 Grams</v>
+        <v/>
       </c>
       <c r="B23" t="str">
-        <v>Mia by Tanishq</v>
+        <v>Swarnavarsham 24K (999) Yellow Gold Bar 2 Gm</v>
+      </c>
+      <c r="C23" t="str">
+        <v>₹</v>
       </c>
       <c r="D23">
-        <v>60677</v>
-      </c>
-      <c r="E23" t="str">
-        <v>₹</v>
+        <v>20000</v>
+      </c>
+      <c r="E23">
+        <v>15609</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Muthoot PAPPACHAN</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>22 Karat Yellow Gold Stunning Lotus Coin of 8 Grams</v>
+        <v/>
       </c>
       <c r="B24" t="str">
+        <v>22 Karat Yellow Gold Divine Mango Leaf Coin of 8 Grams</v>
+      </c>
+      <c r="C24" t="str">
+        <v>₹</v>
+      </c>
+      <c r="E24">
+        <v>60677</v>
+      </c>
+      <c r="F24" t="str">
         <v>Mia by Tanishq</v>
-      </c>
-      <c r="D24">
-        <v>60677</v>
-      </c>
-      <c r="E24" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>22 Karat Yellow Gold Divine Mango Leaf Coin of 10 Grams</v>
+        <v/>
       </c>
       <c r="B25" t="str">
+        <v>22 Karat Yellow Gold Stunning Lotus Coin of 8 Grams</v>
+      </c>
+      <c r="C25" t="str">
+        <v>₹</v>
+      </c>
+      <c r="E25">
+        <v>60677</v>
+      </c>
+      <c r="F25" t="str">
         <v>Mia by Tanishq</v>
-      </c>
-      <c r="D25">
-        <v>75846</v>
-      </c>
-      <c r="E25" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
         <v>PNG Jewellers 10 gm Vedhani Gold coin 24 kt (995)</v>
       </c>
-      <c r="B26" t="str">
+      <c r="C26" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D26">
+        <v>80825</v>
+      </c>
+      <c r="E26">
+        <v>75768</v>
+      </c>
+      <c r="F26" t="str">
         <v>P. N. Gadgil Jewellers</v>
       </c>
-      <c r="C26" t="str">
-        <v>₹80,825</v>
-      </c>
-      <c r="D26">
-        <v>75768</v>
-      </c>
-      <c r="E26" t="str">
-        <v>₹</v>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
+      <c r="A27">
+        <v>4.4</v>
+      </c>
+      <c r="B27" t="str">
         <v>A Himanshu 24k (995) 10 gm Yellow Gold Coin</v>
       </c>
-      <c r="B27" t="str">
+      <c r="C27" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D27">
+        <v>80000</v>
+      </c>
+      <c r="E27">
+        <v>77591</v>
+      </c>
+      <c r="F27" t="str">
         <v>Euphoria Jewellery</v>
-      </c>
-      <c r="C27" t="str">
-        <v>₹80,000</v>
-      </c>
-      <c r="D27">
-        <v>77591</v>
-      </c>
-      <c r="E27" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F27" t="str">
-        <v>4.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
         <v>24K (999) Fine Minted Gold Bar 10 Gm – Reliable Gold Investment</v>
       </c>
-      <c r="B28" t="str">
+      <c r="C28" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D28">
+        <v>85300</v>
+      </c>
+      <c r="E28">
+        <v>77872</v>
+      </c>
+      <c r="F28" t="str">
         <v>AURO METAL</v>
-      </c>
-      <c r="C28" t="str">
-        <v>₹85,300</v>
-      </c>
-      <c r="D28">
-        <v>77872</v>
-      </c>
-      <c r="E28" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
         <v>10 Gram 24K (995) Yellow Gold God Coin</v>
       </c>
-      <c r="B29" t="str">
+      <c r="C29" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D29">
+        <v>81469</v>
+      </c>
+      <c r="E29">
+        <v>77559</v>
+      </c>
+      <c r="F29" t="str">
         <v>PC Jeweller</v>
-      </c>
-      <c r="C29" t="str">
-        <v>₹81,469</v>
-      </c>
-      <c r="D29">
-        <v>77559</v>
-      </c>
-      <c r="E29" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
         <v>10 Gram 24K (995) Yellow Gold Fleur Coin</v>
       </c>
-      <c r="B30" t="str">
+      <c r="C30" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D30">
+        <v>81469</v>
+      </c>
+      <c r="E30">
+        <v>77559</v>
+      </c>
+      <c r="F30" t="str">
         <v>PC Jeweller</v>
-      </c>
-      <c r="C30" t="str">
-        <v>₹81,469</v>
-      </c>
-      <c r="D30">
-        <v>77559</v>
-      </c>
-      <c r="E30" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
         <v>999.9 24k Lotus® Pure 10 gm Gold Bar</v>
       </c>
-      <c r="B31" t="str">
+      <c r="C31" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D31">
+        <v>89930</v>
+      </c>
+      <c r="E31">
+        <v>80720</v>
+      </c>
+      <c r="F31" t="str">
         <v>MMTC-PAMP</v>
-      </c>
-      <c r="C31" t="str">
-        <v>₹89,930</v>
-      </c>
-      <c r="D31">
-        <v>80720</v>
-      </c>
-      <c r="E31" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
         <v>22k (916) 8 gm Yellow Gold Precious Coin with Lord Lakshmi Design</v>
       </c>
-      <c r="B32" t="str">
+      <c r="C32" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D32">
+        <v>69447</v>
+      </c>
+      <c r="E32">
+        <v>56924</v>
+      </c>
+      <c r="F32" t="str">
         <v>Joyalukkas</v>
-      </c>
-      <c r="C32" t="str">
-        <v>₹69,447</v>
-      </c>
-      <c r="D32">
-        <v>56924</v>
-      </c>
-      <c r="E32" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
         <v>24k (995) 10 gm Yellow Gold Coin</v>
       </c>
-      <c r="B33" t="str">
+      <c r="C33" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D33">
+        <v>93713</v>
+      </c>
+      <c r="E33">
+        <v>81122</v>
+      </c>
+      <c r="F33" t="str">
         <v>P.C. Chandra Jewellers</v>
-      </c>
-      <c r="C33" t="str">
-        <v>₹93,713</v>
-      </c>
-      <c r="D33">
-        <v>81122</v>
-      </c>
-      <c r="E33" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
         <v>10 gm Gayatri Mantra Gold Coin</v>
       </c>
-      <c r="B34" t="str">
+      <c r="C34" t="str">
+        <v>₹</v>
+      </c>
+      <c r="E34">
+        <v>82741</v>
+      </c>
+      <c r="F34" t="str">
         <v>Mia by Tanishq</v>
-      </c>
-      <c r="D34">
-        <v>82741</v>
-      </c>
-      <c r="E34" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
         <v>Holy 10 gm Yellow Gold Good Luck Coin</v>
       </c>
-      <c r="B35" t="str">
+      <c r="C35" t="str">
+        <v>₹</v>
+      </c>
+      <c r="E35">
+        <v>82741</v>
+      </c>
+      <c r="F35" t="str">
         <v>Mia by Tanishq</v>
-      </c>
-      <c r="D35">
-        <v>82741</v>
-      </c>
-      <c r="E35" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
         <v>Carved 10 gm Yellow Gold Coin</v>
       </c>
-      <c r="B36" t="str">
+      <c r="C36" t="str">
+        <v>₹</v>
+      </c>
+      <c r="E36">
+        <v>82741</v>
+      </c>
+      <c r="F36" t="str">
         <v>Mia by Tanishq</v>
       </c>
-      <c r="D36">
-        <v>82741</v>
-      </c>
-      <c r="E36" t="str">
-        <v>₹</v>
-      </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
+      <c r="A37">
+        <v>4.4</v>
+      </c>
+      <c r="B37" t="str">
         <v>24K (999) 10 gm Gold Bar</v>
       </c>
-      <c r="B37" t="str">
+      <c r="C37" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D37">
+        <v>78782</v>
+      </c>
+      <c r="E37">
+        <v>78326</v>
+      </c>
+      <c r="F37" t="str">
         <v>Vaibhav Jewellers</v>
-      </c>
-      <c r="C37" t="str">
-        <v>₹78,782</v>
-      </c>
-      <c r="D37">
-        <v>78326</v>
-      </c>
-      <c r="E37" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F37" t="str">
-        <v>4.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
         <v>BIS Hallmarked 10 grams 22k (916) Yellow Gold Precious Coin</v>
       </c>
-      <c r="B38" t="str">
+      <c r="C38" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D38">
+        <v>70000</v>
+      </c>
+      <c r="E38">
+        <v>61000</v>
+      </c>
+      <c r="F38" t="str">
         <v>CaratLane</v>
-      </c>
-      <c r="C38" t="str">
-        <v>₹70,000</v>
-      </c>
-      <c r="D38">
-        <v>61000</v>
-      </c>
-      <c r="E38" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
         <v>24kt (999) 10gr Yellow Gold Bar</v>
       </c>
-      <c r="B39" t="str">
+      <c r="C39" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D39">
+        <v>79800</v>
+      </c>
+      <c r="E39">
+        <v>78075</v>
+      </c>
+      <c r="F39" t="str">
         <v>KISNA</v>
       </c>
-      <c r="C39" t="str">
-        <v>₹79,800</v>
-      </c>
-      <c r="D39">
-        <v>78075</v>
-      </c>
-      <c r="E39" t="str">
-        <v>₹</v>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
+      <c r="A40">
+        <v>4.6</v>
+      </c>
+      <c r="B40" t="str">
         <v>2024 NA Gold NA</v>
       </c>
-      <c r="B40" t="str">
+      <c r="C40" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D40">
+        <v>41320</v>
+      </c>
+      <c r="E40">
+        <v>38679</v>
+      </c>
+      <c r="F40" t="str">
         <v>Malabar Gold &amp; Diamonds</v>
-      </c>
-      <c r="C40" t="str">
-        <v>₹41,320</v>
-      </c>
-      <c r="D40">
-        <v>38679</v>
-      </c>
-      <c r="E40" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F40" t="str">
-        <v>4.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
         <v>24Kt (999) 10GM Yellow Gold Coin</v>
       </c>
-      <c r="B41" t="str">
+      <c r="C41" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D41">
+        <v>84754</v>
+      </c>
+      <c r="E41">
+        <v>78982</v>
+      </c>
+      <c r="F41" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
-      </c>
-      <c r="C41" t="str">
-        <v>₹84,754</v>
-      </c>
-      <c r="D41">
-        <v>78982</v>
-      </c>
-      <c r="E41" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
         <v>24k (999) 12 gm Combo(10gm+2gm) Yellow Gold Bar</v>
       </c>
-      <c r="B42" t="str">
+      <c r="C42" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D42">
+        <v>98795</v>
+      </c>
+      <c r="E42">
+        <v>93057</v>
+      </c>
+      <c r="F42" t="str">
         <v>WHP Jewellers</v>
-      </c>
-      <c r="C42" t="str">
-        <v>₹98,795</v>
-      </c>
-      <c r="D42">
-        <v>93057</v>
-      </c>
-      <c r="E42" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
         <v>22Kt (916) 10GM Balaji Gold Coin</v>
       </c>
-      <c r="B43" t="str">
+      <c r="C43" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D43">
+        <v>78002</v>
+      </c>
+      <c r="E43">
+        <v>73079</v>
+      </c>
+      <c r="F43" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
-      </c>
-      <c r="C43" t="str">
-        <v>₹78,002</v>
-      </c>
-      <c r="D43">
-        <v>73079</v>
-      </c>
-      <c r="E43" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
         <v>24Kt (999) 10GM Yellow Laxmi Gold Coin</v>
       </c>
-      <c r="B44" t="str">
+      <c r="C44" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D44">
+        <v>84754</v>
+      </c>
+      <c r="E44">
+        <v>78982</v>
+      </c>
+      <c r="F44" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
       </c>
-      <c r="C44" t="str">
-        <v>₹84,754</v>
-      </c>
-      <c r="D44">
-        <v>78982</v>
-      </c>
-      <c r="E44" t="str">
-        <v>₹</v>
-      </c>
     </row>
     <row r="45">
-      <c r="A45" t="str">
+      <c r="A45">
+        <v>4.6</v>
+      </c>
+      <c r="B45" t="str">
         <v>10 gm, 24k (999) Yellow Gold Lakshmi Coin</v>
       </c>
-      <c r="B45" t="str">
+      <c r="C45" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D45">
+        <v>80000</v>
+      </c>
+      <c r="E45">
+        <v>77256</v>
+      </c>
+      <c r="F45" t="str">
         <v>Bangalore Refinery</v>
-      </c>
-      <c r="C45" t="str">
-        <v>₹80,000</v>
-      </c>
-      <c r="D45">
-        <v>77256</v>
-      </c>
-      <c r="E45" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F45" t="str">
-        <v>4.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v/>
+      </c>
+      <c r="B46" t="str">
         <v>PNG Jewellers Laxmi Shree Gold Coin 24 kt (995)</v>
       </c>
-      <c r="B46" t="str">
+      <c r="C46" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D46">
+        <v>81086</v>
+      </c>
+      <c r="E46">
+        <v>77280</v>
+      </c>
+      <c r="F46" t="str">
         <v>P.N.Gadgil Jewellers</v>
-      </c>
-      <c r="C46" t="str">
-        <v>₹81,086</v>
-      </c>
-      <c r="D46">
-        <v>77280</v>
-      </c>
-      <c r="E46" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
+        <v/>
+      </c>
+      <c r="B47" t="str">
         <v>24Kt (999) 10GM Laxmi Ganesh Gold Coin</v>
       </c>
-      <c r="B47" t="str">
+      <c r="C47" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D47">
+        <v>84754</v>
+      </c>
+      <c r="E47">
+        <v>78982</v>
+      </c>
+      <c r="F47" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
-      </c>
-      <c r="C47" t="str">
-        <v>₹84,754</v>
-      </c>
-      <c r="D47">
-        <v>78982</v>
-      </c>
-      <c r="E47" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
+        <v/>
+      </c>
+      <c r="B48" t="str">
         <v>22Kt (916) 10GM Ganesh Gold Coin</v>
       </c>
-      <c r="B48" t="str">
+      <c r="C48" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D48">
+        <v>78002</v>
+      </c>
+      <c r="E48">
+        <v>73079</v>
+      </c>
+      <c r="F48" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
-      </c>
-      <c r="C48" t="str">
-        <v>₹78,002</v>
-      </c>
-      <c r="D48">
-        <v>73079</v>
-      </c>
-      <c r="E48" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Swarnavarsham 24K (999) Yellow Gold Bar 8 Gm</v>
+        <v/>
       </c>
       <c r="B49" t="str">
-        <v>Muthoot PAPPACHAN</v>
+        <v>22Kt (916) 10GM Radha Krishna Gold Coin</v>
       </c>
       <c r="C49" t="str">
-        <v>₹70,500</v>
+        <v>₹</v>
       </c>
       <c r="D49">
-        <v>61573</v>
-      </c>
-      <c r="E49" t="str">
-        <v>₹</v>
+        <v>78002</v>
+      </c>
+      <c r="E49">
+        <v>73079</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>22Kt (916) 10GM Radha Krishna Gold Coin</v>
+        <v/>
       </c>
       <c r="B50" t="str">
-        <v>Sri Jagdamba Pearls Dealer</v>
+        <v>Swarnavarsham 24K (999) Yellow Gold Bar 8 Gm</v>
       </c>
       <c r="C50" t="str">
-        <v>₹78,002</v>
+        <v>₹</v>
       </c>
       <c r="D50">
-        <v>73079</v>
-      </c>
-      <c r="E50" t="str">
-        <v>₹</v>
+        <v>70500</v>
+      </c>
+      <c r="E50">
+        <v>61573</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Muthoot PAPPACHAN</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
+        <v/>
+      </c>
+      <c r="B51" t="str">
         <v>10 gm, 24k (999) Yellow Gold Ganesh Coin</v>
       </c>
-      <c r="B51" t="str">
+      <c r="C51" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D51">
+        <v>80000</v>
+      </c>
+      <c r="E51">
+        <v>77256</v>
+      </c>
+      <c r="F51" t="str">
         <v>Bangalore Refinery</v>
-      </c>
-      <c r="C51" t="str">
-        <v>₹80,000</v>
-      </c>
-      <c r="D51">
-        <v>77256</v>
-      </c>
-      <c r="E51" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
+        <v/>
+      </c>
+      <c r="B52" t="str">
         <v>Sri Jagdamba Pearls 22Kt (916) 10GM Vishnu Gold Coin</v>
       </c>
-      <c r="B52" t="str">
+      <c r="C52" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D52">
+        <v>78002</v>
+      </c>
+      <c r="E52">
+        <v>73079</v>
+      </c>
+      <c r="F52" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
-      </c>
-      <c r="C52" t="str">
-        <v>₹78,002</v>
-      </c>
-      <c r="D52">
-        <v>73079</v>
-      </c>
-      <c r="E52" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
+        <v/>
+      </c>
+      <c r="B53" t="str">
         <v>22Kt (916) 10GM Shivji Gold Coin</v>
       </c>
-      <c r="B53" t="str">
+      <c r="C53" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D53">
+        <v>78002</v>
+      </c>
+      <c r="E53">
+        <v>73079</v>
+      </c>
+      <c r="F53" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
-      </c>
-      <c r="C53" t="str">
-        <v>₹78,002</v>
-      </c>
-      <c r="D53">
-        <v>73079</v>
-      </c>
-      <c r="E53" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
+        <v/>
+      </c>
+      <c r="B54" t="str">
         <v>22Kt (916) 10GM Laxmi Ganesh Gold Coin</v>
       </c>
-      <c r="B54" t="str">
+      <c r="C54" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D54">
+        <v>78002</v>
+      </c>
+      <c r="E54">
+        <v>73079</v>
+      </c>
+      <c r="F54" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
-      </c>
-      <c r="C54" t="str">
-        <v>₹78,002</v>
-      </c>
-      <c r="D54">
-        <v>73079</v>
-      </c>
-      <c r="E54" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
+        <v/>
+      </c>
+      <c r="B55" t="str">
+        <v>24Kt (999) 10GM Mecca Gold Coin</v>
+      </c>
+      <c r="C55" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D55">
+        <v>84754</v>
+      </c>
+      <c r="E55">
+        <v>78982</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Sri Jagdamba Pearls Dealer</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>4.4</v>
+      </c>
+      <c r="B56" t="str">
         <v>24k (999) 8 gm Yellow Gold Coin</v>
       </c>
-      <c r="B55" t="str">
+      <c r="C56" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D56">
+        <v>64500</v>
+      </c>
+      <c r="E56">
+        <v>61724</v>
+      </c>
+      <c r="F56" t="str">
         <v>Bangalore Refinery</v>
-      </c>
-      <c r="C55" t="str">
-        <v>₹64,500</v>
-      </c>
-      <c r="D55">
-        <v>61724</v>
-      </c>
-      <c r="E55" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F55" t="str">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>24Kt (999) 10GM Mecca Gold Coin</v>
-      </c>
-      <c r="B56" t="str">
-        <v>Sri Jagdamba Pearls Dealer</v>
-      </c>
-      <c r="C56" t="str">
-        <v>₹84,754</v>
-      </c>
-      <c r="D56">
-        <v>78982</v>
-      </c>
-      <c r="E56" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
+        <v/>
+      </c>
+      <c r="B57" t="str">
         <v>24Kt (999) 10GM Ganesh Gold Coin</v>
       </c>
-      <c r="B57" t="str">
+      <c r="C57" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D57">
+        <v>84754</v>
+      </c>
+      <c r="E57">
+        <v>78982</v>
+      </c>
+      <c r="F57" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
       </c>
-      <c r="C57" t="str">
-        <v>₹84,754</v>
-      </c>
-      <c r="D57">
-        <v>78982</v>
-      </c>
-      <c r="E57" t="str">
-        <v>₹</v>
-      </c>
     </row>
     <row r="58">
-      <c r="A58" t="str">
-        <v>Holy 10 gm Yellow Gold Good Luck Coin</v>
+      <c r="A58">
+        <v>4.5</v>
       </c>
       <c r="B58" t="str">
-        <v>Mia by Tanishq</v>
+        <v>Swarnavarsham 24K (999) Yellow Gold Bar 1 Gm</v>
+      </c>
+      <c r="C58" t="str">
+        <v>₹</v>
       </c>
       <c r="D58">
-        <v>82741</v>
-      </c>
-      <c r="E58" t="str">
-        <v>₹</v>
+        <v>10132</v>
+      </c>
+      <c r="E58">
+        <v>7939</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Muthoot PAPPACHAN</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
+        <v/>
+      </c>
+      <c r="B59" t="str">
         <v>22 Karat Yellow Gold Stunning Lotus Coin of 10 Grams</v>
       </c>
-      <c r="B59" t="str">
+      <c r="C59" t="str">
+        <v>₹</v>
+      </c>
+      <c r="E59">
+        <v>75846</v>
+      </c>
+      <c r="F59" t="str">
         <v>Mia by Tanishq</v>
-      </c>
-      <c r="D59">
-        <v>75846</v>
-      </c>
-      <c r="E59" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Swarnavarsham 24K (999) Yellow Gold Bar 5 Gm</v>
+        <v/>
       </c>
       <c r="B60" t="str">
-        <v>Muthoot PAPPACHAN</v>
+        <v>Holy 10 gm Yellow Gold Good Luck Coin</v>
       </c>
       <c r="C60" t="str">
-        <v>₹48,500</v>
-      </c>
-      <c r="D60">
-        <v>38659</v>
-      </c>
-      <c r="E60" t="str">
-        <v>₹</v>
+        <v>₹</v>
+      </c>
+      <c r="E60">
+        <v>82741</v>
       </c>
       <c r="F60" t="str">
-        <v>4.3</v>
+        <v>Mia by Tanishq</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Swarnavarsham 24K (999) Yellow Gold Bar 2gm (1gm + 1gm)</v>
+        <v/>
       </c>
       <c r="B61" t="str">
-        <v>Muthoot PAPPACHAN</v>
+        <v>22 Karat Yellow Gold Divine Mango Leaf Coin of 10 Grams</v>
       </c>
       <c r="C61" t="str">
-        <v>₹18,500</v>
-      </c>
-      <c r="D61">
-        <v>15892</v>
-      </c>
-      <c r="E61" t="str">
-        <v>₹</v>
+        <v>₹</v>
+      </c>
+      <c r="E61">
+        <v>75846</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Mia by Tanishq</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="str">
-        <v>ijuels 999 Purity BIS Hallmarked and Certified Pure Silver 5 gm Coin blister Pack</v>
+      <c r="A62">
+        <v>4.7</v>
       </c>
       <c r="B62" t="str">
-        <v>I JUELS ; LIVE THE EMOTIONS</v>
+        <v>BIS Hallmarked Personalised Silver Coin Wedding Anniversary 999 Pure</v>
       </c>
       <c r="C62" t="str">
-        <v>₹1,450</v>
+        <v>₹</v>
       </c>
       <c r="D62">
-        <v>649</v>
-      </c>
-      <c r="E62" t="str">
-        <v>₹</v>
+        <v>3000</v>
+      </c>
+      <c r="E62">
+        <v>1750</v>
       </c>
       <c r="F62" t="str">
+        <v>Precious Moments</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
         <v>4.6</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
+      <c r="B63" t="str">
         <v>BIS Hallmarked Personalised Anniversary 10/20/50/100 gm 999 Pure Silver Coin by ACPL</v>
       </c>
-      <c r="B63" t="str">
+      <c r="C63" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D63">
+        <v>3000</v>
+      </c>
+      <c r="E63">
+        <v>1750</v>
+      </c>
+      <c r="F63" t="str">
         <v>Precious Moments</v>
       </c>
-      <c r="C63" t="str">
-        <v>₹3,000</v>
-      </c>
-      <c r="D63">
-        <v>1750</v>
-      </c>
-      <c r="E63" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F63" t="str">
+    </row>
+    <row r="64">
+      <c r="A64">
         <v>4.6</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>Precious Moments Ganesh Lakshmi Silver Coin 10 Gram | 20 Gram | 50 Gram | 100 Gram BIS Hallmarked 999 Purity with Gift Box by ACPL</v>
-      </c>
       <c r="B64" t="str">
+        <v>BIS Hallmarked Personalised Happy Birthday 10/20/50/100gm 999 Pure Silver Coin by ACPL</v>
+      </c>
+      <c r="C64" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D64">
+        <v>4000</v>
+      </c>
+      <c r="E64">
+        <v>2750</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Precious Moments</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>4.5</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Precious Moments BIS Hallmarked Silver Coin Ram Lalla | Ram Darbar | Ram Mandir | Ayodha Temple 999 Pure with Gift Box Available 10 Gram | 20 Gram | 50 Gram | 100 Gram by ACPL</v>
+      </c>
+      <c r="C65" t="str">
+        <v>₹</v>
+      </c>
+      <c r="D65">
+        <v>6000</v>
+      </c>
+      <c r="E65">
+        <v>5460</v>
+      </c>
+      <c r="F65" t="str">
         <v>ACPL</v>
-      </c>
-      <c r="C64" t="str">
-        <v>₹7,500</v>
-      </c>
-      <c r="D64">
-        <v>5460</v>
-      </c>
-      <c r="E64" t="str">
-        <v>₹</v>
-      </c>
-      <c r="F64" t="str">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>BIS Hallmarked Personalised Newly Married Anniversary beautiful Square Silver Coin available in 10/20/50/100 Gram 999 Pure by Acpl.</v>
-      </c>
-      <c r="B65" t="str">
-        <v>Precious Moments</v>
-      </c>
-      <c r="C65" t="str">
-        <v>₹3,000</v>
-      </c>
-      <c r="D65">
-        <v>1750</v>
-      </c>
-      <c r="E65" t="str">
-        <v>₹</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Precious Moments BIS Hallmarked Silver Coin Ram Lalla | Ram Darbar | Ram Mandir | Ayodha Temple 999 Pure with Gift Box Available 10 Gram | 20 Gram | 50 Gram | 100 Gram by ACPL</v>
+        <v/>
       </c>
       <c r="B66" t="str">
-        <v>ACPL</v>
+        <v>BIS Hallmarked Personalised Newly Married Anniversary beautiful Square Silver Coin available in 10/20/50/100 Gram 999 Pure by Acpl.</v>
       </c>
       <c r="C66" t="str">
-        <v>₹6,000</v>
+        <v>₹</v>
       </c>
       <c r="D66">
-        <v>5460</v>
-      </c>
-      <c r="E66" t="str">
-        <v>₹</v>
+        <v>3000</v>
+      </c>
+      <c r="E66">
+        <v>1750</v>
       </c>
       <c r="F66" t="str">
-        <v>4.5</v>
+        <v>Precious Moments</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,18 +407,24 @@
         <v>Rating</v>
       </c>
       <c r="B1" t="str">
+        <v>TotalReviews</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Availability (In Stock/Out of Stock)</v>
+      </c>
+      <c r="D1" t="str">
         <v>Product Name</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>Currency</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
         <v>MRP</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
         <v>Price</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>Brand</v>
       </c>
     </row>
@@ -427,39 +433,51 @@
         <v/>
       </c>
       <c r="B2" t="str">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>In Stock</v>
+      </c>
+      <c r="D2" t="str">
         <v>Swarnavarsham Hallmarked 999 Gold Coin 10 Gm</v>
       </c>
-      <c r="C2" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D2">
+      <c r="E2" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F2">
         <v>86535</v>
       </c>
-      <c r="E2">
-        <v>76734</v>
-      </c>
-      <c r="F2" t="str">
+      <c r="G2">
+        <v>78068</v>
+      </c>
+      <c r="H2" t="str">
         <v>Muthoot PAPPACHAN</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="B3" t="str">
-        <v>Swarnavarsham 24K (999) Yellow Gold Bar 10 Gm</v>
+        <v>50</v>
       </c>
       <c r="C3" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D3">
-        <v>87500</v>
-      </c>
-      <c r="E3">
-        <v>76789</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Muthoot PAPPACHAN</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Jewellery 10gram 24K (999) Gold Bar</v>
+      </c>
+      <c r="E3" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F3">
+        <v>90000</v>
+      </c>
+      <c r="G3">
+        <v>77999</v>
+      </c>
+      <c r="H3" t="str">
+        <v>BHIMA</v>
       </c>
     </row>
     <row r="4">
@@ -467,18 +485,24 @@
         <v/>
       </c>
       <c r="B4" t="str">
-        <v>Swarnavarsham 24K (999) Yellow Gold Bar 8 Gm</v>
+        <v>42</v>
       </c>
       <c r="C4" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D4">
-        <v>70500</v>
-      </c>
-      <c r="E4">
-        <v>61573</v>
-      </c>
-      <c r="F4" t="str">
+        <v>In Stock</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Swarnavarsham 24K (999) Yellow Gold Bar 5 Gm</v>
+      </c>
+      <c r="E4" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F4">
+        <v>48500</v>
+      </c>
+      <c r="G4">
+        <v>39336</v>
+      </c>
+      <c r="H4" t="str">
         <v>Muthoot PAPPACHAN</v>
       </c>
     </row>
@@ -487,16 +511,25 @@
         <v/>
       </c>
       <c r="B5" t="str">
-        <v>Carved 10 gm Yellow Gold Coin</v>
+        <v>6</v>
       </c>
       <c r="C5" t="str">
-        <v>₹</v>
-      </c>
-      <c r="E5">
-        <v>82741</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Mia by Tanishq</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D5" t="str">
+        <v>24k (995) 10 gm Yellow Gold Coin</v>
+      </c>
+      <c r="E5" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F5">
+        <v>93565</v>
+      </c>
+      <c r="G5">
+        <v>80993</v>
+      </c>
+      <c r="H5" t="str">
+        <v>P.C. Chandra Jewellers</v>
       </c>
     </row>
     <row r="6">
@@ -504,39 +537,42 @@
         <v>4.6</v>
       </c>
       <c r="B6" t="str">
+        <v>1,414</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Out of Stock</v>
+      </c>
+      <c r="D6" t="str">
         <v>24k (999.9) 10 gm Yellow Gold Bar</v>
       </c>
-      <c r="C6" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D6">
-        <v>85000</v>
-      </c>
-      <c r="E6">
-        <v>77196</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="H6" t="str">
         <v>Bangalore Refinery</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>4.6</v>
+      <c r="A7" t="str">
+        <v/>
       </c>
       <c r="B7" t="str">
-        <v>Assayer Certified 10 grams, 24k (999) Yellow Gold Precious Gold Bar</v>
+        <v>4</v>
       </c>
       <c r="C7" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D7">
-        <v>94631</v>
-      </c>
-      <c r="E7">
-        <v>77566</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Joyalukkas</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D7" t="str">
+        <v>10 gm, 24k (999) Yellow Gold Coin</v>
+      </c>
+      <c r="E7" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F7">
+        <v>80000</v>
+      </c>
+      <c r="G7">
+        <v>78301</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Bangalore Refinery</v>
       </c>
     </row>
     <row r="8">
@@ -544,19 +580,25 @@
         <v>4.6</v>
       </c>
       <c r="B8" t="str">
-        <v>Swarnavarsham 24K (999) Yellow Gold Bar 10 Gm</v>
+        <v>216</v>
       </c>
       <c r="C8" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D8">
-        <v>87500</v>
-      </c>
-      <c r="E8">
-        <v>76789</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Muthoot PAPPACHAN</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2024 NA Gold NA</v>
+      </c>
+      <c r="E8" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F8">
+        <v>80600</v>
+      </c>
+      <c r="G8">
+        <v>78499</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Malabar Gold &amp; Diamonds</v>
       </c>
     </row>
     <row r="9">
@@ -564,109 +606,145 @@
         <v>4.5</v>
       </c>
       <c r="B9" t="str">
-        <v>24k (999) 10gram Rose Gold Bar</v>
+        <v>36</v>
       </c>
       <c r="C9" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D9">
-        <v>80600</v>
-      </c>
-      <c r="E9">
-        <v>77109</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Malabar Gold &amp; Diamonds</v>
+        <v>Out of Stock</v>
+      </c>
+      <c r="D9" t="str">
+        <v>MMTC - PAMP Goddess Lakshmi 24k 10gm Gold Bar</v>
+      </c>
+      <c r="H9" t="str">
+        <v>MMTC-PAMP</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="B10" t="str">
-        <v>Jewellery 10gram 24K (999) Gold Bar</v>
-      </c>
-      <c r="F10" t="str">
-        <v>BHIMA</v>
+        <v>634</v>
+      </c>
+      <c r="C10" t="str">
+        <v>In Stock</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Assayer Certified 10 grams, 24k (999) Yellow Gold Precious Gold Bar</v>
+      </c>
+      <c r="E10" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F10">
+        <v>95702</v>
+      </c>
+      <c r="G10">
+        <v>78444</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Joyalukkas</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="B11" t="str">
-        <v>24k (999) 10gm Yellow Gold Bar</v>
+        <v>204</v>
       </c>
       <c r="C11" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D11">
-        <v>82495</v>
-      </c>
-      <c r="E11">
-        <v>77448</v>
-      </c>
-      <c r="F11" t="str">
-        <v>WHP Jewellers</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2024 NA Gold NA</v>
+      </c>
+      <c r="E11" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F11">
+        <v>80600</v>
+      </c>
+      <c r="G11">
+        <v>78499</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Malabar Gold &amp; Diamonds</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="B12" t="str">
-        <v>2024 NA Gold NA</v>
+        <v>96</v>
       </c>
       <c r="C12" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D12">
-        <v>82350</v>
-      </c>
-      <c r="E12">
-        <v>77109</v>
-      </c>
-      <c r="F12" t="str">
+        <v>In Stock</v>
+      </c>
+      <c r="D12" t="str">
+        <v>22k (916) 10gram Goddess Laxmi Gold Coin BIS Hallmarked</v>
+      </c>
+      <c r="E12" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F12">
+        <v>74900</v>
+      </c>
+      <c r="G12">
+        <v>72589</v>
+      </c>
+      <c r="H12" t="str">
         <v>Malabar Gold &amp; Diamonds</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="B13" t="str">
-        <v>MMTC - PAMP Goddess Lakshmi 24k 10gm Gold Bar</v>
+        <v>75</v>
       </c>
       <c r="C13" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D13">
-        <v>89000</v>
-      </c>
-      <c r="E13">
-        <v>78830</v>
-      </c>
-      <c r="F13" t="str">
-        <v>MMTC-PAMP</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D13" t="str">
+        <v>24k (999) 10gm Yellow Gold Bar</v>
+      </c>
+      <c r="E13" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F13">
+        <v>82495</v>
+      </c>
+      <c r="G13">
+        <v>77448</v>
+      </c>
+      <c r="H13" t="str">
+        <v>WHP Jewellers</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="B14" t="str">
-        <v>2024 NA Gold NA</v>
+        <v>363</v>
       </c>
       <c r="C14" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D14">
+        <v>In Stock</v>
+      </c>
+      <c r="D14" t="str">
+        <v>24k (999) 10gram Rose Gold Bar</v>
+      </c>
+      <c r="E14" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F14">
         <v>80600</v>
       </c>
-      <c r="E14">
-        <v>77109</v>
-      </c>
-      <c r="F14" t="str">
+      <c r="G14">
+        <v>78499</v>
+      </c>
+      <c r="H14" t="str">
         <v>Malabar Gold &amp; Diamonds</v>
       </c>
     </row>
@@ -675,39 +753,51 @@
         <v>4.6</v>
       </c>
       <c r="B15" t="str">
+        <v>183</v>
+      </c>
+      <c r="C15" t="str">
+        <v>In Stock</v>
+      </c>
+      <c r="D15" t="str">
         <v>22k (916) 10gram Rose Gold Coin BIS Hallmarked</v>
       </c>
-      <c r="C15" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D15">
-        <v>76150</v>
-      </c>
-      <c r="E15">
-        <v>71299</v>
-      </c>
-      <c r="F15" t="str">
+      <c r="E15" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F15">
+        <v>74900</v>
+      </c>
+      <c r="G15">
+        <v>72589</v>
+      </c>
+      <c r="H15" t="str">
         <v>Malabar Gold &amp; Diamonds</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>4.4</v>
+      <c r="A16" t="str">
+        <v/>
       </c>
       <c r="B16" t="str">
-        <v>22k (916) 10gram Goddess Laxmi Gold Coin BIS Hallmarked</v>
+        <v>2</v>
       </c>
       <c r="C16" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D16">
-        <v>74900</v>
-      </c>
-      <c r="E16">
-        <v>71299</v>
-      </c>
-      <c r="F16" t="str">
-        <v>Malabar Gold &amp; Diamonds</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D16" t="str">
+        <v>10gm Euphoria Jewellery by A Himanshu pure 24KT gold coin in 999 finese</v>
+      </c>
+      <c r="E16" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F16">
+        <v>80000</v>
+      </c>
+      <c r="G16">
+        <v>77269</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Euphoria Jewellery</v>
       </c>
     </row>
     <row r="17">
@@ -715,38 +805,50 @@
         <v/>
       </c>
       <c r="B17" t="str">
-        <v>10 gm, 24k (999) Yellow Gold Coin</v>
+        <v/>
       </c>
       <c r="C17" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D17">
+        <v>In Stock</v>
+      </c>
+      <c r="D17" t="str">
+        <v>10 Gram 24k (999) Yellow Gold Rose Coin</v>
+      </c>
+      <c r="E17" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F17">
+        <v>81500</v>
+      </c>
+      <c r="G17">
+        <v>78301</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Bangalore Refinery</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>4.4</v>
+      </c>
+      <c r="B18" t="str">
+        <v>12</v>
+      </c>
+      <c r="C18" t="str">
+        <v>In Stock</v>
+      </c>
+      <c r="D18" t="str">
+        <v>A Himanshu 24k (995) 10 gm Yellow Gold Coin</v>
+      </c>
+      <c r="E18" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F18">
         <v>80000</v>
       </c>
-      <c r="E17">
-        <v>77256</v>
-      </c>
-      <c r="F17" t="str">
-        <v>Bangalore Refinery</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v/>
-      </c>
-      <c r="B18" t="str">
-        <v>10gm Euphoria Jewellery by A Himanshu pure 24KT gold coin in 999 finese</v>
-      </c>
-      <c r="C18" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D18">
-        <v>80000</v>
-      </c>
-      <c r="E18">
-        <v>77450</v>
-      </c>
-      <c r="F18" t="str">
+      <c r="G18">
+        <v>76906</v>
+      </c>
+      <c r="H18" t="str">
         <v>Euphoria Jewellery</v>
       </c>
     </row>
@@ -755,18 +857,24 @@
         <v>4.6</v>
       </c>
       <c r="B19" t="str">
+        <v>3,094</v>
+      </c>
+      <c r="C19" t="str">
+        <v>In Stock</v>
+      </c>
+      <c r="D19" t="str">
         <v>24k (999.9) 5 gm Yellow Gold Bar</v>
       </c>
-      <c r="C19" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D19">
+      <c r="E19" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F19">
         <v>45000</v>
       </c>
-      <c r="E19">
-        <v>38553</v>
-      </c>
-      <c r="F19" t="str">
+      <c r="G19">
+        <v>39071</v>
+      </c>
+      <c r="H19" t="str">
         <v>Bangalore Refinery</v>
       </c>
     </row>
@@ -775,19 +883,22 @@
         <v/>
       </c>
       <c r="B20" t="str">
-        <v>Swarnavarsham Hallmarked 999 Gold Coin 10 Gm</v>
+        <v>3</v>
       </c>
       <c r="C20" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D20">
-        <v>86535</v>
-      </c>
-      <c r="E20">
-        <v>76734</v>
-      </c>
-      <c r="F20" t="str">
-        <v>Muthoot PAPPACHAN</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D20" t="str">
+        <v>10 gm Gayatri Mantra Gold Coin</v>
+      </c>
+      <c r="E20" t="str">
+        <v>₹</v>
+      </c>
+      <c r="G20">
+        <v>83019</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Mia by Tanishq</v>
       </c>
     </row>
     <row r="21">
@@ -795,19 +906,22 @@
         <v/>
       </c>
       <c r="B21" t="str">
-        <v>10 Gram 24k (999) Yellow Gold Rose Coin</v>
+        <v/>
       </c>
       <c r="C21" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D21">
-        <v>81500</v>
-      </c>
-      <c r="E21">
-        <v>77256</v>
-      </c>
-      <c r="F21" t="str">
-        <v>Bangalore Refinery</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Holy 10 gm Yellow Gold Good Luck Coin</v>
+      </c>
+      <c r="E21" t="str">
+        <v>₹</v>
+      </c>
+      <c r="G21">
+        <v>83019</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Mia by Tanishq</v>
       </c>
     </row>
     <row r="22">
@@ -815,16 +929,22 @@
         <v/>
       </c>
       <c r="B22" t="str">
-        <v>10 gm Gayatri Mantra Gold Coin</v>
+        <v/>
       </c>
       <c r="C22" t="str">
-        <v>₹</v>
-      </c>
-      <c r="E22">
-        <v>82741</v>
-      </c>
-      <c r="F22" t="str">
-        <v>Mia by Tanishq</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D22" t="str">
+        <v>99.9% Pure Silver Jai Guru Ji 10 Gram Silver Coin/Sikka for Gifting &amp; Investment (10 Grams)</v>
+      </c>
+      <c r="E22" t="str">
+        <v>₹</v>
+      </c>
+      <c r="G22">
+        <v>1445</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Raajraani</v>
       </c>
     </row>
     <row r="23">
@@ -832,19 +952,22 @@
         <v/>
       </c>
       <c r="B23" t="str">
-        <v>Swarnavarsham 24K (999) Yellow Gold Bar 2 Gm</v>
+        <v/>
       </c>
       <c r="C23" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D23">
-        <v>20000</v>
-      </c>
-      <c r="E23">
-        <v>15609</v>
-      </c>
-      <c r="F23" t="str">
-        <v>Muthoot PAPPACHAN</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Premium Gold Coin | 3 gm | Diamond Studded | 22kt Gold | 0.18 Carat Diamonds | EF Colour | VVS Clarity | Coin for Gifting</v>
+      </c>
+      <c r="E23" t="str">
+        <v>₹</v>
+      </c>
+      <c r="G23">
+        <v>59739</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Divine Solitaires</v>
       </c>
     </row>
     <row r="24">
@@ -852,73 +975,103 @@
         <v/>
       </c>
       <c r="B24" t="str">
-        <v>22 Karat Yellow Gold Divine Mango Leaf Coin of 8 Grams</v>
+        <v>4</v>
       </c>
       <c r="C24" t="str">
-        <v>₹</v>
-      </c>
-      <c r="E24">
-        <v>60677</v>
-      </c>
-      <c r="F24" t="str">
-        <v>Mia by Tanishq</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Swarnavarsham 24K (999) Yellow Gold Bar 2 Gm</v>
+      </c>
+      <c r="E24" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F24">
+        <v>20000</v>
+      </c>
+      <c r="G24">
+        <v>15889</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Muthoot PAPPACHAN</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
-        <v/>
+      <c r="A25">
+        <v>4.5</v>
       </c>
       <c r="B25" t="str">
-        <v>22 Karat Yellow Gold Stunning Lotus Coin of 8 Grams</v>
+        <v>55</v>
       </c>
       <c r="C25" t="str">
-        <v>₹</v>
-      </c>
-      <c r="E25">
-        <v>60677</v>
-      </c>
-      <c r="F25" t="str">
-        <v>Mia by Tanishq</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Swarnavarsham 24K (999) Yellow Gold Bar 1 Gm</v>
+      </c>
+      <c r="E25" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F25">
+        <v>10132</v>
+      </c>
+      <c r="G25">
+        <v>8082</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Muthoot PAPPACHAN</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
-        <v/>
+      <c r="A26">
+        <v>4.4</v>
       </c>
       <c r="B26" t="str">
-        <v>PNG Jewellers 10 gm Vedhani Gold coin 24 kt (995)</v>
+        <v>50</v>
       </c>
       <c r="C26" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D26">
-        <v>80825</v>
-      </c>
-      <c r="E26">
-        <v>75768</v>
-      </c>
-      <c r="F26" t="str">
-        <v>P. N. Gadgil Jewellers</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Jewellery 10gram 24K (999) Gold Bar</v>
+      </c>
+      <c r="E26" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F26">
+        <v>90000</v>
+      </c>
+      <c r="G26">
+        <v>77999</v>
+      </c>
+      <c r="H26" t="str">
+        <v>BHIMA</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
-        <v>4.4</v>
+      <c r="A27" t="str">
+        <v/>
       </c>
       <c r="B27" t="str">
-        <v>A Himanshu 24k (995) 10 gm Yellow Gold Coin</v>
+        <v/>
       </c>
       <c r="C27" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D27">
-        <v>80000</v>
-      </c>
-      <c r="E27">
-        <v>77591</v>
-      </c>
-      <c r="F27" t="str">
-        <v>Euphoria Jewellery</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D27" t="str">
+        <v>24Kt (999) 10GM Lord Krishna Gold Coin</v>
+      </c>
+      <c r="E27" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F27">
+        <v>84754</v>
+      </c>
+      <c r="G27">
+        <v>80566</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="28">
@@ -926,19 +1079,25 @@
         <v/>
       </c>
       <c r="B28" t="str">
-        <v>24K (999) Fine Minted Gold Bar 10 Gm – Reliable Gold Investment</v>
+        <v/>
       </c>
       <c r="C28" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D28">
-        <v>85300</v>
-      </c>
-      <c r="E28">
-        <v>77872</v>
-      </c>
-      <c r="F28" t="str">
-        <v>AURO METAL</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D28" t="str">
+        <v>24Kt (999) 10GM Yellow Laxmi Gold Coin</v>
+      </c>
+      <c r="E28" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F28">
+        <v>84754</v>
+      </c>
+      <c r="G28">
+        <v>80566</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="29">
@@ -946,19 +1105,25 @@
         <v/>
       </c>
       <c r="B29" t="str">
-        <v>10 Gram 24K (995) Yellow Gold God Coin</v>
+        <v>70</v>
       </c>
       <c r="C29" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D29">
-        <v>81469</v>
-      </c>
-      <c r="E29">
-        <v>77559</v>
-      </c>
-      <c r="F29" t="str">
-        <v>PC Jeweller</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D29" t="str">
+        <v>PNG Jewellers Laxmi Shree Gold Coin 24 kt (995)</v>
+      </c>
+      <c r="E29" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F29">
+        <v>81086</v>
+      </c>
+      <c r="G29">
+        <v>78197</v>
+      </c>
+      <c r="H29" t="str">
+        <v>P.N.Gadgil Jewellers</v>
       </c>
     </row>
     <row r="30">
@@ -966,19 +1131,25 @@
         <v/>
       </c>
       <c r="B30" t="str">
-        <v>10 Gram 24K (995) Yellow Gold Fleur Coin</v>
+        <v/>
       </c>
       <c r="C30" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D30">
-        <v>81469</v>
-      </c>
-      <c r="E30">
-        <v>77559</v>
-      </c>
-      <c r="F30" t="str">
-        <v>PC Jeweller</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D30" t="str">
+        <v>22Kt (916) 10GM Balaji Gold Coin</v>
+      </c>
+      <c r="E30" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F30">
+        <v>78002</v>
+      </c>
+      <c r="G30">
+        <v>74545</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="31">
@@ -986,19 +1157,25 @@
         <v/>
       </c>
       <c r="B31" t="str">
-        <v>999.9 24k Lotus® Pure 10 gm Gold Bar</v>
+        <v/>
       </c>
       <c r="C31" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D31">
-        <v>89930</v>
-      </c>
-      <c r="E31">
-        <v>80720</v>
-      </c>
-      <c r="F31" t="str">
-        <v>MMTC-PAMP</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Sri Jagdamba Pearls 22Kt (916) 10GM Vishnu Gold Coin</v>
+      </c>
+      <c r="E31" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F31">
+        <v>78002</v>
+      </c>
+      <c r="G31">
+        <v>74545</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="32">
@@ -1006,19 +1183,25 @@
         <v/>
       </c>
       <c r="B32" t="str">
-        <v>22k (916) 8 gm Yellow Gold Precious Coin with Lord Lakshmi Design</v>
+        <v/>
       </c>
       <c r="C32" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D32">
-        <v>69447</v>
-      </c>
-      <c r="E32">
-        <v>56924</v>
-      </c>
-      <c r="F32" t="str">
-        <v>Joyalukkas</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D32" t="str">
+        <v>22Kt (916) 10GM Ganesh Gold Coin</v>
+      </c>
+      <c r="E32" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F32">
+        <v>78002</v>
+      </c>
+      <c r="G32">
+        <v>74545</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="33">
@@ -1026,19 +1209,25 @@
         <v/>
       </c>
       <c r="B33" t="str">
-        <v>24k (995) 10 gm Yellow Gold Coin</v>
+        <v>1</v>
       </c>
       <c r="C33" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D33">
-        <v>93713</v>
-      </c>
-      <c r="E33">
-        <v>81122</v>
-      </c>
-      <c r="F33" t="str">
-        <v>P.C. Chandra Jewellers</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D33" t="str">
+        <v>22Kt (916) 10GM Radha Krishna Gold Coin</v>
+      </c>
+      <c r="E33" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F33">
+        <v>78002</v>
+      </c>
+      <c r="G33">
+        <v>74545</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="34">
@@ -1046,16 +1235,25 @@
         <v/>
       </c>
       <c r="B34" t="str">
-        <v>10 gm Gayatri Mantra Gold Coin</v>
+        <v>4</v>
       </c>
       <c r="C34" t="str">
-        <v>₹</v>
-      </c>
-      <c r="E34">
-        <v>82741</v>
-      </c>
-      <c r="F34" t="str">
-        <v>Mia by Tanishq</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D34" t="str">
+        <v>PNG Jewellers 10 gm Vedhani Gold coin 24 kt (995)</v>
+      </c>
+      <c r="E34" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F34">
+        <v>80825</v>
+      </c>
+      <c r="G34">
+        <v>76667</v>
+      </c>
+      <c r="H34" t="str">
+        <v>P. N. Gadgil Jewellers</v>
       </c>
     </row>
     <row r="35">
@@ -1063,53 +1261,77 @@
         <v/>
       </c>
       <c r="B35" t="str">
-        <v>Holy 10 gm Yellow Gold Good Luck Coin</v>
+        <v/>
       </c>
       <c r="C35" t="str">
-        <v>₹</v>
-      </c>
-      <c r="E35">
-        <v>82741</v>
-      </c>
-      <c r="F35" t="str">
-        <v>Mia by Tanishq</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D35" t="str">
+        <v>24Kt (999) 10GM Laxmi Ganesh Gold Coin</v>
+      </c>
+      <c r="E35" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F35">
+        <v>84754</v>
+      </c>
+      <c r="G35">
+        <v>80566</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
-        <v/>
+      <c r="A36">
+        <v>4.6</v>
       </c>
       <c r="B36" t="str">
-        <v>Carved 10 gm Yellow Gold Coin</v>
+        <v>20</v>
       </c>
       <c r="C36" t="str">
-        <v>₹</v>
-      </c>
-      <c r="E36">
-        <v>82741</v>
-      </c>
-      <c r="F36" t="str">
-        <v>Mia by Tanishq</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Swarnavarsham 24K (999) Yellow Gold Bar 10 Gm</v>
+      </c>
+      <c r="E36" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F36">
+        <v>87500</v>
+      </c>
+      <c r="G36">
+        <v>78068</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Muthoot PAPPACHAN</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
-        <v>4.4</v>
+      <c r="A37" t="str">
+        <v/>
       </c>
       <c r="B37" t="str">
-        <v>24K (999) 10 gm Gold Bar</v>
+        <v/>
       </c>
       <c r="C37" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D37">
-        <v>78782</v>
-      </c>
-      <c r="E37">
-        <v>78326</v>
-      </c>
-      <c r="F37" t="str">
-        <v>Vaibhav Jewellers</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D37" t="str">
+        <v>24Kt (999) 10GM Yellow Gold Coin</v>
+      </c>
+      <c r="E37" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F37">
+        <v>84754</v>
+      </c>
+      <c r="G37">
+        <v>80566</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="38">
@@ -1117,19 +1339,25 @@
         <v/>
       </c>
       <c r="B38" t="str">
-        <v>BIS Hallmarked 10 grams 22k (916) Yellow Gold Precious Coin</v>
+        <v/>
       </c>
       <c r="C38" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D38">
-        <v>70000</v>
-      </c>
-      <c r="E38">
-        <v>61000</v>
-      </c>
-      <c r="F38" t="str">
-        <v>CaratLane</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D38" t="str">
+        <v>24Kt (999) 10GM Mecca Gold Coin</v>
+      </c>
+      <c r="E38" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F38">
+        <v>84754</v>
+      </c>
+      <c r="G38">
+        <v>80566</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="39">
@@ -1137,39 +1365,51 @@
         <v/>
       </c>
       <c r="B39" t="str">
-        <v>24kt (999) 10gr Yellow Gold Bar</v>
+        <v/>
       </c>
       <c r="C39" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D39">
-        <v>79800</v>
-      </c>
-      <c r="E39">
-        <v>78075</v>
-      </c>
-      <c r="F39" t="str">
-        <v>KISNA</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D39" t="str">
+        <v>22Kt (916) 10GM Durga Gold Coin</v>
+      </c>
+      <c r="E39" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F39">
+        <v>78002</v>
+      </c>
+      <c r="G39">
+        <v>74545</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
-        <v>4.6</v>
+      <c r="A40" t="str">
+        <v/>
       </c>
       <c r="B40" t="str">
-        <v>2024 NA Gold NA</v>
+        <v>2</v>
       </c>
       <c r="C40" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D40">
-        <v>41320</v>
-      </c>
-      <c r="E40">
-        <v>38679</v>
-      </c>
-      <c r="F40" t="str">
-        <v>Malabar Gold &amp; Diamonds</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D40" t="str">
+        <v>10 Gram 24K (995) Yellow Gold God Coin</v>
+      </c>
+      <c r="E40" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F40">
+        <v>82009</v>
+      </c>
+      <c r="G40">
+        <v>78074</v>
+      </c>
+      <c r="H40" t="str">
+        <v>PC Jeweller</v>
       </c>
     </row>
     <row r="41">
@@ -1177,18 +1417,24 @@
         <v/>
       </c>
       <c r="B41" t="str">
-        <v>24Kt (999) 10GM Yellow Gold Coin</v>
+        <v/>
       </c>
       <c r="C41" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D41">
-        <v>84754</v>
-      </c>
-      <c r="E41">
-        <v>78982</v>
-      </c>
-      <c r="F41" t="str">
+        <v>In Stock</v>
+      </c>
+      <c r="D41" t="str">
+        <v>22Kt (916) 10GM Macca Gold Coin</v>
+      </c>
+      <c r="E41" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F41">
+        <v>78002</v>
+      </c>
+      <c r="G41">
+        <v>74545</v>
+      </c>
+      <c r="H41" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
@@ -1197,19 +1443,25 @@
         <v/>
       </c>
       <c r="B42" t="str">
-        <v>24k (999) 12 gm Combo(10gm+2gm) Yellow Gold Bar</v>
+        <v>1</v>
       </c>
       <c r="C42" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D42">
-        <v>98795</v>
-      </c>
-      <c r="E42">
-        <v>93057</v>
-      </c>
-      <c r="F42" t="str">
-        <v>WHP Jewellers</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Swarnavarsham Hallmarked 999 Gold Coin 10 Gm</v>
+      </c>
+      <c r="E42" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F42">
+        <v>86535</v>
+      </c>
+      <c r="G42">
+        <v>78068</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Muthoot PAPPACHAN</v>
       </c>
     </row>
     <row r="43">
@@ -1217,18 +1469,24 @@
         <v/>
       </c>
       <c r="B43" t="str">
-        <v>22Kt (916) 10GM Balaji Gold Coin</v>
+        <v/>
       </c>
       <c r="C43" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D43">
+        <v>In Stock</v>
+      </c>
+      <c r="D43" t="str">
+        <v>22Kt (916) 10GM Laxmi Ganesh Gold Coin</v>
+      </c>
+      <c r="E43" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F43">
         <v>78002</v>
       </c>
-      <c r="E43">
-        <v>73079</v>
-      </c>
-      <c r="F43" t="str">
+      <c r="G43">
+        <v>74545</v>
+      </c>
+      <c r="H43" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
@@ -1237,39 +1495,51 @@
         <v/>
       </c>
       <c r="B44" t="str">
-        <v>24Kt (999) 10GM Yellow Laxmi Gold Coin</v>
+        <v/>
       </c>
       <c r="C44" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D44">
+        <v>In Stock</v>
+      </c>
+      <c r="D44" t="str">
+        <v>24Kt (999) 10GM Balaji Gold Coin</v>
+      </c>
+      <c r="E44" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F44">
         <v>84754</v>
       </c>
-      <c r="E44">
-        <v>78982</v>
-      </c>
-      <c r="F44" t="str">
+      <c r="G44">
+        <v>80566</v>
+      </c>
+      <c r="H44" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
-        <v>4.6</v>
+      <c r="A45" t="str">
+        <v/>
       </c>
       <c r="B45" t="str">
-        <v>10 gm, 24k (999) Yellow Gold Lakshmi Coin</v>
+        <v/>
       </c>
       <c r="C45" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D45">
-        <v>80000</v>
-      </c>
-      <c r="E45">
-        <v>77256</v>
-      </c>
-      <c r="F45" t="str">
-        <v>Bangalore Refinery</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D45" t="str">
+        <v>22Kt (916) 10GM Shivji Gold Coin</v>
+      </c>
+      <c r="E45" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F45">
+        <v>78002</v>
+      </c>
+      <c r="G45">
+        <v>74545</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="46">
@@ -1277,19 +1547,25 @@
         <v/>
       </c>
       <c r="B46" t="str">
-        <v>PNG Jewellers Laxmi Shree Gold Coin 24 kt (995)</v>
+        <v>1</v>
       </c>
       <c r="C46" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D46">
-        <v>81086</v>
-      </c>
-      <c r="E46">
-        <v>77280</v>
-      </c>
-      <c r="F46" t="str">
-        <v>P.N.Gadgil Jewellers</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D46" t="str">
+        <v>24Kt (999) 10GM George King Gold Coin</v>
+      </c>
+      <c r="E46" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F46">
+        <v>84754</v>
+      </c>
+      <c r="G46">
+        <v>80566</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="47">
@@ -1297,19 +1573,22 @@
         <v/>
       </c>
       <c r="B47" t="str">
-        <v>24Kt (999) 10GM Laxmi Ganesh Gold Coin</v>
+        <v>2</v>
       </c>
       <c r="C47" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D47">
-        <v>84754</v>
-      </c>
-      <c r="E47">
-        <v>78982</v>
-      </c>
-      <c r="F47" t="str">
-        <v>Sri Jagdamba Pearls Dealer</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Carved 10 gm Yellow Gold Coin</v>
+      </c>
+      <c r="E47" t="str">
+        <v>₹</v>
+      </c>
+      <c r="G47">
+        <v>83019</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Mia by Tanishq</v>
       </c>
     </row>
     <row r="48">
@@ -1317,19 +1596,25 @@
         <v/>
       </c>
       <c r="B48" t="str">
-        <v>22Kt (916) 10GM Ganesh Gold Coin</v>
+        <v/>
       </c>
       <c r="C48" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D48">
-        <v>78002</v>
-      </c>
-      <c r="E48">
-        <v>73079</v>
-      </c>
-      <c r="F48" t="str">
-        <v>Sri Jagdamba Pearls Dealer</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D48" t="str">
+        <v>10 Gram 24K (995) Yellow Gold Fleur Coin</v>
+      </c>
+      <c r="E48" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F48">
+        <v>82009</v>
+      </c>
+      <c r="G48">
+        <v>78074</v>
+      </c>
+      <c r="H48" t="str">
+        <v>PC Jeweller</v>
       </c>
     </row>
     <row r="49">
@@ -1337,39 +1622,42 @@
         <v/>
       </c>
       <c r="B49" t="str">
-        <v>22Kt (916) 10GM Radha Krishna Gold Coin</v>
+        <v/>
       </c>
       <c r="C49" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D49">
-        <v>78002</v>
-      </c>
-      <c r="E49">
-        <v>73079</v>
-      </c>
-      <c r="F49" t="str">
+        <v>In Stock</v>
+      </c>
+      <c r="D49" t="str">
+        <v>24Kt (999) 10GM Ganesh Gold Coin</v>
+      </c>
+      <c r="E49" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F49">
+        <v>84754</v>
+      </c>
+      <c r="G49">
+        <v>80566</v>
+      </c>
+      <c r="H49" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="str">
-        <v/>
+      <c r="A50">
+        <v>4.4</v>
       </c>
       <c r="B50" t="str">
-        <v>Swarnavarsham 24K (999) Yellow Gold Bar 8 Gm</v>
+        <v>27</v>
       </c>
       <c r="C50" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D50">
-        <v>70500</v>
-      </c>
-      <c r="E50">
-        <v>61573</v>
-      </c>
-      <c r="F50" t="str">
-        <v>Muthoot PAPPACHAN</v>
+        <v>Out of Stock</v>
+      </c>
+      <c r="D50" t="str">
+        <v>24K (999) 10 gm Gold Bar</v>
+      </c>
+      <c r="H50" t="str">
+        <v>Vaibhav Jewellers</v>
       </c>
     </row>
     <row r="51">
@@ -1377,19 +1665,25 @@
         <v/>
       </c>
       <c r="B51" t="str">
-        <v>10 gm, 24k (999) Yellow Gold Ganesh Coin</v>
+        <v/>
       </c>
       <c r="C51" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D51">
-        <v>80000</v>
-      </c>
-      <c r="E51">
-        <v>77256</v>
-      </c>
-      <c r="F51" t="str">
-        <v>Bangalore Refinery</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D51" t="str">
+        <v>24Kt (999) 10GM Shivji Gold Coin</v>
+      </c>
+      <c r="E51" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F51">
+        <v>84754</v>
+      </c>
+      <c r="G51">
+        <v>80566</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="52">
@@ -1397,18 +1691,24 @@
         <v/>
       </c>
       <c r="B52" t="str">
-        <v>Sri Jagdamba Pearls 22Kt (916) 10GM Vishnu Gold Coin</v>
+        <v/>
       </c>
       <c r="C52" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D52">
+        <v>In Stock</v>
+      </c>
+      <c r="D52" t="str">
+        <v>22Kt (916) 10GM Krishna Gold Coin</v>
+      </c>
+      <c r="E52" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F52">
         <v>78002</v>
       </c>
-      <c r="E52">
-        <v>73079</v>
-      </c>
-      <c r="F52" t="str">
+      <c r="G52">
+        <v>74545</v>
+      </c>
+      <c r="H52" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
@@ -1417,18 +1717,24 @@
         <v/>
       </c>
       <c r="B53" t="str">
-        <v>22Kt (916) 10GM Shivji Gold Coin</v>
+        <v/>
       </c>
       <c r="C53" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D53">
-        <v>78002</v>
-      </c>
-      <c r="E53">
-        <v>73079</v>
-      </c>
-      <c r="F53" t="str">
+        <v>In Stock</v>
+      </c>
+      <c r="D53" t="str">
+        <v>24Kt (999) 10GM Radha Krishna Gold Coin</v>
+      </c>
+      <c r="E53" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F53">
+        <v>84754</v>
+      </c>
+      <c r="G53">
+        <v>80566</v>
+      </c>
+      <c r="H53" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
@@ -1437,18 +1743,24 @@
         <v/>
       </c>
       <c r="B54" t="str">
-        <v>22Kt (916) 10GM Laxmi Ganesh Gold Coin</v>
+        <v/>
       </c>
       <c r="C54" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D54">
+        <v>In Stock</v>
+      </c>
+      <c r="D54" t="str">
+        <v>22Kt (916) 10GM Hanuman Gold Coin</v>
+      </c>
+      <c r="E54" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F54">
         <v>78002</v>
       </c>
-      <c r="E54">
-        <v>73079</v>
-      </c>
-      <c r="F54" t="str">
+      <c r="G54">
+        <v>74545</v>
+      </c>
+      <c r="H54" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
@@ -1457,39 +1769,51 @@
         <v/>
       </c>
       <c r="B55" t="str">
-        <v>24Kt (999) 10GM Mecca Gold Coin</v>
+        <v/>
       </c>
       <c r="C55" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D55">
+        <v>In Stock</v>
+      </c>
+      <c r="D55" t="str">
+        <v>24Kt (999) 10GM Vishnu Gold Coin</v>
+      </c>
+      <c r="E55" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F55">
         <v>84754</v>
       </c>
-      <c r="E55">
-        <v>78982</v>
-      </c>
-      <c r="F55" t="str">
+      <c r="G55">
+        <v>80566</v>
+      </c>
+      <c r="H55" t="str">
         <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
-        <v>4.4</v>
+      <c r="A56" t="str">
+        <v/>
       </c>
       <c r="B56" t="str">
-        <v>24k (999) 8 gm Yellow Gold Coin</v>
+        <v/>
       </c>
       <c r="C56" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D56">
-        <v>64500</v>
-      </c>
-      <c r="E56">
-        <v>61724</v>
-      </c>
-      <c r="F56" t="str">
-        <v>Bangalore Refinery</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D56" t="str">
+        <v>24Kt (999) 10GM Hanuman Gold Coin</v>
+      </c>
+      <c r="E56" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F56">
+        <v>84754</v>
+      </c>
+      <c r="G56">
+        <v>80566</v>
+      </c>
+      <c r="H56" t="str">
+        <v>Sri Jagdamba Pearls Dealer</v>
       </c>
     </row>
     <row r="57">
@@ -1497,56 +1821,74 @@
         <v/>
       </c>
       <c r="B57" t="str">
-        <v>24Kt (999) 10GM Ganesh Gold Coin</v>
+        <v>6</v>
       </c>
       <c r="C57" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D57">
-        <v>84754</v>
-      </c>
-      <c r="E57">
-        <v>78982</v>
-      </c>
-      <c r="F57" t="str">
-        <v>Sri Jagdamba Pearls Dealer</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D57" t="str">
+        <v>24k (995) 10 gm Yellow Gold Coin</v>
+      </c>
+      <c r="E57" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F57">
+        <v>93565</v>
+      </c>
+      <c r="G57">
+        <v>80993</v>
+      </c>
+      <c r="H57" t="str">
+        <v>P.C. Chandra Jewellers</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58">
-        <v>4.5</v>
+      <c r="A58" t="str">
+        <v/>
       </c>
       <c r="B58" t="str">
-        <v>Swarnavarsham 24K (999) Yellow Gold Bar 1 Gm</v>
+        <v>1</v>
       </c>
       <c r="C58" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D58">
-        <v>10132</v>
-      </c>
-      <c r="E58">
-        <v>7939</v>
-      </c>
-      <c r="F58" t="str">
+        <v>In Stock</v>
+      </c>
+      <c r="D58" t="str">
+        <v>99.9% Pure Silver Lakshmi Ganesha 10 Gram Silver Coin/Sikka for Gifting &amp; Investment (10 Grams)</v>
+      </c>
+      <c r="E58" t="str">
+        <v>₹</v>
+      </c>
+      <c r="G58">
+        <v>1250</v>
+      </c>
+      <c r="H58" t="str">
+        <v>Raajraani</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>4.3</v>
+      </c>
+      <c r="B59" t="str">
+        <v>23</v>
+      </c>
+      <c r="C59" t="str">
+        <v>In Stock</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Swarnavarsham Hallmarked 999 Gold Coin 0.5 Gm</v>
+      </c>
+      <c r="E59" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F59">
+        <v>8257</v>
+      </c>
+      <c r="G59">
+        <v>4504</v>
+      </c>
+      <c r="H59" t="str">
         <v>Muthoot PAPPACHAN</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v/>
-      </c>
-      <c r="B59" t="str">
-        <v>22 Karat Yellow Gold Stunning Lotus Coin of 10 Grams</v>
-      </c>
-      <c r="C59" t="str">
-        <v>₹</v>
-      </c>
-      <c r="E59">
-        <v>75846</v>
-      </c>
-      <c r="F59" t="str">
-        <v>Mia by Tanishq</v>
       </c>
     </row>
     <row r="60">
@@ -1554,16 +1896,25 @@
         <v/>
       </c>
       <c r="B60" t="str">
-        <v>Holy 10 gm Yellow Gold Good Luck Coin</v>
+        <v>6</v>
       </c>
       <c r="C60" t="str">
-        <v>₹</v>
-      </c>
-      <c r="E60">
-        <v>82741</v>
-      </c>
-      <c r="F60" t="str">
-        <v>Mia by Tanishq</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D60" t="str">
+        <v>999 Pure Silver Coin 20 GMS, with Best Wishes Embossing | 6 Month Warranty*</v>
+      </c>
+      <c r="E60" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F60">
+        <v>3598</v>
+      </c>
+      <c r="G60">
+        <v>1999</v>
+      </c>
+      <c r="H60" t="str">
+        <v>GIVA</v>
       </c>
     </row>
     <row r="61">
@@ -1571,96 +1922,129 @@
         <v/>
       </c>
       <c r="B61" t="str">
-        <v>22 Karat Yellow Gold Divine Mango Leaf Coin of 10 Grams</v>
+        <v>2</v>
       </c>
       <c r="C61" t="str">
-        <v>₹</v>
-      </c>
-      <c r="E61">
-        <v>75846</v>
-      </c>
-      <c r="F61" t="str">
-        <v>Mia by Tanishq</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D61" t="str">
+        <v>2 Gram 24K (995) Yellow Gold Floral Pattern Coin</v>
+      </c>
+      <c r="E61" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F61">
+        <v>17156</v>
+      </c>
+      <c r="G61">
+        <v>15718</v>
+      </c>
+      <c r="H61" t="str">
+        <v>PC Jeweller</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="B62" t="str">
-        <v>BIS Hallmarked Personalised Silver Coin Wedding Anniversary 999 Pure</v>
+        <v>128</v>
       </c>
       <c r="C62" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D62">
-        <v>3000</v>
-      </c>
-      <c r="E62">
-        <v>1750</v>
-      </c>
-      <c r="F62" t="str">
-        <v>Precious Moments</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Precious Moments BIS Hallmarked Silver Coin 25th &amp; 50th Happy Anniversary Floral Design 999 Pure</v>
+      </c>
+      <c r="E62" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F62">
+        <v>8000</v>
+      </c>
+      <c r="G62">
+        <v>5520</v>
+      </c>
+      <c r="H62" t="str">
+        <v>ACPL</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63">
-        <v>4.6</v>
+      <c r="A63" t="str">
+        <v/>
       </c>
       <c r="B63" t="str">
-        <v>BIS Hallmarked Personalised Anniversary 10/20/50/100 gm 999 Pure Silver Coin by ACPL</v>
+        <v>7</v>
       </c>
       <c r="C63" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D63">
-        <v>3000</v>
-      </c>
-      <c r="E63">
-        <v>1750</v>
-      </c>
-      <c r="F63" t="str">
-        <v>Precious Moments</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D63" t="str">
+        <v>MAA SILVER 50 Grams Nariyal Kalash Silver Coin with 999 purity Perfect for Religious &amp; Gifting Purpose</v>
+      </c>
+      <c r="E63" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F63">
+        <v>7499</v>
+      </c>
+      <c r="G63">
+        <v>4979</v>
+      </c>
+      <c r="H63" t="str">
+        <v>MAA SILVER</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
-        <v>4.6</v>
+      <c r="A64" t="str">
+        <v/>
       </c>
       <c r="B64" t="str">
-        <v>BIS Hallmarked Personalised Happy Birthday 10/20/50/100gm 999 Pure Silver Coin by ACPL</v>
+        <v>5</v>
       </c>
       <c r="C64" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D64">
-        <v>4000</v>
-      </c>
-      <c r="E64">
-        <v>2750</v>
-      </c>
-      <c r="F64" t="str">
-        <v>Precious Moments</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D64" t="str">
+        <v>999 Purity Silver Queen Victoria Coin/Sikka with Box for Gifting &amp; Investment Use (5 Grams - 100 Grams)</v>
+      </c>
+      <c r="E64" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F64">
+        <v>999</v>
+      </c>
+      <c r="G64">
+        <v>743</v>
+      </c>
+      <c r="H64" t="str">
+        <v>MAA SILVER</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65">
-        <v>4.5</v>
+      <c r="A65" t="str">
+        <v/>
       </c>
       <c r="B65" t="str">
-        <v>Precious Moments BIS Hallmarked Silver Coin Ram Lalla | Ram Darbar | Ram Mandir | Ayodha Temple 999 Pure with Gift Box Available 10 Gram | 20 Gram | 50 Gram | 100 Gram by ACPL</v>
+        <v>4</v>
       </c>
       <c r="C65" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D65">
-        <v>6000</v>
-      </c>
-      <c r="E65">
-        <v>5460</v>
-      </c>
-      <c r="F65" t="str">
-        <v>ACPL</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D65" t="str">
+        <v>999 Purity Silver King George Coin/Sikka with Box for Gifting &amp; Investment Use (5 Grams - 100 Grams)</v>
+      </c>
+      <c r="E65" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F65">
+        <v>3499</v>
+      </c>
+      <c r="G65">
+        <v>2304</v>
+      </c>
+      <c r="H65" t="str">
+        <v>MAA SILVER</v>
       </c>
     </row>
     <row r="66">
@@ -1668,24 +2052,30 @@
         <v/>
       </c>
       <c r="B66" t="str">
-        <v>BIS Hallmarked Personalised Newly Married Anniversary beautiful Square Silver Coin available in 10/20/50/100 Gram 999 Pure by Acpl.</v>
+        <v>5</v>
       </c>
       <c r="C66" t="str">
-        <v>₹</v>
-      </c>
-      <c r="D66">
-        <v>3000</v>
-      </c>
-      <c r="E66">
-        <v>1750</v>
-      </c>
-      <c r="F66" t="str">
-        <v>Precious Moments</v>
+        <v>In Stock</v>
+      </c>
+      <c r="D66" t="str">
+        <v>ACPL Precious Moments BIS Hallmarked Laxmi Ganesh Saraswati 50 Gram Silver Coin 999 Pure</v>
+      </c>
+      <c r="E66" t="str">
+        <v>₹</v>
+      </c>
+      <c r="F66">
+        <v>7000</v>
+      </c>
+      <c r="G66">
+        <v>5520</v>
+      </c>
+      <c r="H66" t="str">
+        <v>ACPL</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F66"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H66"/>
   </ignoredErrors>
 </worksheet>
 </file>